--- a/0. Source Layer/components/reports/Dragsholm_Sparekasse(Bank).xlsx
+++ b/0. Source Layer/components/reports/Dragsholm_Sparekasse(Bank).xlsx
@@ -567,31 +567,31 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0e83a8d8-b870-4565-b4c5-bdae05f42730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tele Celular Sul Participacoes S.A.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12/7/1961</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>48</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>b04575ab-57a6-4892-a506-18c3a3833bfe</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Fomento Economico Mexicano S.A. de C.V.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7/8/1977</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>29</v>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>prototype</t>
@@ -599,12 +599,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>304-380-1927</t>
+          <t>667-875-8361</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>enquiries@fomentoeconomicomexicanosadecv.org</t>
+          <t>sales@telecelularsulparticipacoessa.org</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -618,98 +618,98 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>$39,719,568,396.00</t>
+          <t>$38,315,221,645.00</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>$88,832,414,416.00</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>$78,922,797,589.00</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>$25,245,500,008.00</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>33458147480</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>$34,728,926,018.00</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>4539411294463071</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
         <v>9</v>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>$21,514,860,557.00</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>$20,005,141,087.00</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>8</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>$63,871,197,345.00</t>
-        </is>
-      </c>
-      <c r="T2" t="n">
-        <v>51167333686</v>
-      </c>
-      <c r="U2" t="n">
-        <v>10</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>$66,606,496,346.00</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>4485539990638325</t>
-        </is>
-      </c>
-      <c r="X2" t="n">
-        <v>7</v>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>$40,812,898,945.00</t>
+          <t>$8,846,742,999.00</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>$41,623,690,244.00</t>
+          <t>$10,222,232,679.00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>$35,482,492,161.00</t>
+          <t>$2,255,695,377.00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>df98f86a-e21a-4c11-bb75-716aea0217fa</t>
+          <t>3b9e17d2-96d2-49a6-a4e9-745dcdad023e</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aluminum Corp of China Ltd.</t>
+          <t>Bennett Environmental Inc.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5/16/1982</t>
+          <t>5/15/1962</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -718,12 +718,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>814-039-1974</t>
+          <t>561-685-4405</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>marketing@aluminumcorpofchinaltd.org</t>
+          <t>sales@bennettenvironmentalinc.org</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -737,69 +737,69 @@
         </is>
       </c>
       <c r="L3" t="n">
+        <v>9</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>$64,777,245,593.00</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
         <v>7</v>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>$99,123,081,966.00</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>10</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>$12,894,256,062.00</t>
+          <t>$1,639,769,502.00</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$67,071,284,581.00</t>
+          <t>$71,998,184,468.00</t>
         </is>
       </c>
       <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>$49,155,809,167.00</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>18927101780</v>
+      </c>
+      <c r="U3" t="n">
         <v>4</v>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>$77,857,254,126.00</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
-        <v>59667094816</v>
-      </c>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>$6,799,851,213.00</t>
+          <t>$7,676,109,190.00</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>4929523846856285</t>
+          <t>4532806081690025</t>
         </is>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>$4,433,663,339.00</t>
+          <t>$29,651,812,252.00</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>$24,542,104,702.00</t>
+          <t>$4,949,604,997.00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>$11,578,846,246.00</t>
+          <t>$70,475,351,942.00</t>
         </is>
       </c>
     </row>
